--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.010920.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.010920.xlsx_with_dialog_acts.xlsx
@@ -639,12 +639,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1185,12 +1185,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1815,12 +1815,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1857,12 +1857,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2445,12 +2445,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2487,12 +2487,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3205,12 +3205,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3373,12 +3373,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3961,12 +3961,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4045,12 +4045,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4087,12 +4087,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4129,12 +4129,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4213,12 +4213,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4423,12 +4423,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5179,12 +5179,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5263,12 +5263,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5389,12 +5389,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5515,12 +5515,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5599,12 +5599,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5893,12 +5893,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5935,12 +5935,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6103,12 +6103,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6229,12 +6229,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7195,12 +7195,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7321,12 +7321,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7489,12 +7489,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7573,12 +7573,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7783,12 +7783,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7909,12 +7909,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8119,12 +8119,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8203,12 +8203,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8287,12 +8287,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8497,12 +8497,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8623,12 +8623,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8791,12 +8791,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8833,12 +8833,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8875,12 +8875,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9127,12 +9127,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9169,12 +9169,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9253,12 +9253,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9505,12 +9505,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9631,12 +9631,12 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9841,12 +9841,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9883,12 +9883,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10345,12 +10345,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10597,12 +10597,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10723,12 +10723,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10807,12 +10807,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10891,12 +10891,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10933,12 +10933,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11101,12 +11101,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11605,12 +11605,12 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11689,12 +11689,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11731,12 +11731,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11773,12 +11773,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11857,12 +11857,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11983,12 +11983,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12109,12 +12109,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12151,12 +12151,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12571,12 +12571,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -12613,12 +12613,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12655,12 +12655,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12739,12 +12739,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12865,12 +12865,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13201,12 +13201,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13453,12 +13453,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13537,12 +13537,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14209,12 +14209,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14507,12 +14507,12 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14591,12 +14591,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14675,12 +14675,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14717,12 +14717,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14759,12 +14759,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15263,12 +15263,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15809,12 +15809,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16103,12 +16103,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16359,12 +16359,12 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16401,12 +16401,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16443,12 +16443,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16485,12 +16485,12 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17119,12 +17119,12 @@
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17245,12 +17245,12 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17501,12 +17501,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17669,12 +17669,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17753,12 +17753,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17837,12 +17837,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17921,12 +17921,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18257,12 +18257,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18299,12 +18299,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18509,12 +18509,12 @@
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18551,12 +18551,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18677,12 +18677,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19227,12 +19227,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19479,12 +19479,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19773,12 +19773,12 @@
       <c r="H460" t="inlineStr"/>
       <c r="I460" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20193,12 +20193,12 @@
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20361,12 +20361,12 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22217,12 +22217,12 @@
       <c r="H518" t="inlineStr"/>
       <c r="I518" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22343,12 +22343,12 @@
       <c r="H521" t="inlineStr"/>
       <c r="I521" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22427,12 +22427,12 @@
       <c r="H523" t="inlineStr"/>
       <c r="I523" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22469,12 +22469,12 @@
       <c r="H524" t="inlineStr"/>
       <c r="I524" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22595,12 +22595,12 @@
       <c r="H527" t="inlineStr"/>
       <c r="I527" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22637,12 +22637,12 @@
       <c r="H528" t="inlineStr"/>
       <c r="I528" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23141,12 +23141,12 @@
       <c r="H540" t="inlineStr"/>
       <c r="I540" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24107,12 +24107,12 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24191,12 +24191,12 @@
       <c r="H565" t="inlineStr"/>
       <c r="I565" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24695,12 +24695,12 @@
       <c r="H577" t="inlineStr"/>
       <c r="I577" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24737,12 +24737,12 @@
       <c r="H578" t="inlineStr"/>
       <c r="I578" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24821,12 +24821,12 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25199,12 +25199,12 @@
       <c r="H589" t="inlineStr"/>
       <c r="I589" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25707,12 +25707,12 @@
       <c r="H601" t="inlineStr"/>
       <c r="I601" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25791,12 +25791,12 @@
       <c r="H603" t="inlineStr"/>
       <c r="I603" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26001,12 +26001,12 @@
       <c r="H608" t="inlineStr"/>
       <c r="I608" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26421,12 +26421,12 @@
       <c r="H618" t="inlineStr"/>
       <c r="I618" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26505,12 +26505,12 @@
       <c r="H620" t="inlineStr"/>
       <c r="I620" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26589,12 +26589,12 @@
       <c r="H622" t="inlineStr"/>
       <c r="I622" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27177,12 +27177,12 @@
       <c r="H636" t="inlineStr"/>
       <c r="I636" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27723,12 +27723,12 @@
       <c r="H649" t="inlineStr"/>
       <c r="I649" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27849,12 +27849,12 @@
       <c r="H652" t="inlineStr"/>
       <c r="I652" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27891,12 +27891,12 @@
       <c r="H653" t="inlineStr"/>
       <c r="I653" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28017,12 +28017,12 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28101,12 +28101,12 @@
       <c r="H658" t="inlineStr"/>
       <c r="I658" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28227,12 +28227,12 @@
       <c r="H661" t="inlineStr"/>
       <c r="I661" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29277,12 +29277,12 @@
       <c r="H686" t="inlineStr"/>
       <c r="I686" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29529,12 +29529,12 @@
       <c r="H692" t="inlineStr"/>
       <c r="I692" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -30327,12 +30327,12 @@
       <c r="H711" t="inlineStr"/>
       <c r="I711" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -30621,12 +30621,12 @@
       <c r="H718" t="inlineStr"/>
       <c r="I718" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30789,12 +30789,12 @@
       <c r="H722" t="inlineStr"/>
       <c r="I722" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31041,12 +31041,12 @@
       <c r="H728" t="inlineStr"/>
       <c r="I728" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31167,12 +31167,12 @@
       <c r="H731" t="inlineStr"/>
       <c r="I731" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31461,12 +31461,12 @@
       <c r="H738" t="inlineStr"/>
       <c r="I738" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J738" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -31797,12 +31797,12 @@
       <c r="H746" t="inlineStr"/>
       <c r="I746" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32981,12 +32981,12 @@
       <c r="H774" t="inlineStr"/>
       <c r="I774" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J774" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33611,12 +33611,12 @@
       <c r="H789" t="inlineStr"/>
       <c r="I789" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J789" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33695,12 +33695,12 @@
       <c r="H791" t="inlineStr"/>
       <c r="I791" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J791" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -34283,12 +34283,12 @@
       <c r="H805" t="inlineStr"/>
       <c r="I805" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J805" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34409,12 +34409,12 @@
       <c r="H808" t="inlineStr"/>
       <c r="I808" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -34535,12 +34535,12 @@
       <c r="H811" t="inlineStr"/>
       <c r="I811" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J811" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34661,12 +34661,12 @@
       <c r="H814" t="inlineStr"/>
       <c r="I814" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
